--- a/src/predicciones/xgboost/producto_18.xlsx
+++ b/src/predicciones/xgboost/producto_18.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,1305 +386,1791 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1.563946843147278</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1.883234858512878</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1.867569327354431</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44935</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>1.635459065437317</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44940</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1.12875497341156</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44941</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1.095507264137268</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44944</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>1.648761391639709</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44947</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>1.262003064155579</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44948</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.9404617547988892</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44953</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.871180057525635</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44955</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1.431524157524109</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44958</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1.325071573257446</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44960</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.314968585968018</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44961</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1.725539565086365</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44965</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1.748755216598511</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44966</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>1.581113219261169</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44968</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>1.673042774200439</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44970</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.458990693092346</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44972</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>1.578843235969543</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44973</v>
       </c>
       <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>1.497425556182861</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>2</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44976</v>
       </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>1.858002781867981</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44979</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1.37748908996582</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>2</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44981</v>
       </c>
       <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>1.741972208023071</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>2</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44986</v>
       </c>
       <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>1.431902050971985</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44987</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1.151990175247192</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44990</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>1.080737709999084</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44992</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>1.157108426094055</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44996</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1.166029453277588</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45006</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>0.9618710279464722</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45009</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>1.37757134437561</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45014</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>0.9713360071182251</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45015</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>0.936025857925415</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>2</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45018</v>
       </c>
       <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
         <v>0.8916489481925964</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45020</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>1.145549297332764</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45022</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>1.226210117340088</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45026</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>0.9990850687026978</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45027</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>0.9791220426559448</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45028</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>0.9872767925262451</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45029</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>1.162079572677612</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45030</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>0.9429431557655334</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45033</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>0.9946925044059753</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>2</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45035</v>
       </c>
       <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
         <v>1.839054346084595</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45037</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1.693168997764587</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>2</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45040</v>
       </c>
       <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
         <v>1.758496284484863</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>2</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45041</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
         <v>1.73046350479126</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45049</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>1.036730527877808</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>2</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45050</v>
       </c>
       <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
         <v>1.250817179679871</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45054</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>1.460700631141663</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45056</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.691403031349182</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45058</v>
       </c>
       <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>1.732471585273743</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>2</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45060</v>
       </c>
       <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
         <v>1.933532118797302</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>2</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45065</v>
       </c>
       <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
         <v>2.007459402084351</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45070</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>1.632124423980713</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>2</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45071</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
         <v>1.609974503517151</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>2</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45073</v>
       </c>
       <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
         <v>1.754774332046509</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>2</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45078</v>
       </c>
       <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>2.016639709472656</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45080</v>
       </c>
       <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>1.815899729728699</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>2</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45084</v>
       </c>
       <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>2.120061874389648</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>2</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45089</v>
       </c>
       <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>1.964134335517883</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>2</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45090</v>
       </c>
       <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
         <v>1.584271430969238</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>2</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45092</v>
       </c>
       <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
         <v>1.613976240158081</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>2</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45093</v>
       </c>
       <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
         <v>1.365746855735779</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45094</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>1.498375773429871</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45095</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>1.066714286804199</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45097</v>
       </c>
       <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>1.632800817489624</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45099</v>
       </c>
       <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>1.279092788696289</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45102</v>
       </c>
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>1.270879507064819</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45104</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>1.236220121383667</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>2</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45105</v>
       </c>
       <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
         <v>1.427912354469299</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>2</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45106</v>
       </c>
       <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
         <v>1.444635629653931</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45107</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>1.36509120464325</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>2</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45111</v>
       </c>
       <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
         <v>1.709409713745117</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45118</v>
       </c>
       <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>1.05355429649353</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45125</v>
       </c>
       <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>1.383253693580627</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45130</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>1.191921591758728</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45132</v>
       </c>
       <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>1.208181738853455</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45133</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>1.191058754920959</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>2</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45135</v>
       </c>
       <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
         <v>1.622718214988708</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45137</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>1.126944899559021</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>2</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45138</v>
       </c>
       <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
         <v>2.093753814697266</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>2</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45146</v>
       </c>
       <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
         <v>1.285002946853638</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45147</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>0.8205960392951965</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45152</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>1.204265475273132</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>2</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45154</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>1.930070996284485</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>1</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45156</v>
       </c>
       <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>1.168884754180908</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45157</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>1.006781101226807</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>2</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45161</v>
       </c>
       <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
         <v>1.175213575363159</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>1</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45166</v>
       </c>
       <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <v>0.8002331256866455</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>1</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45167</v>
       </c>
       <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>1.547813296318054</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45169</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>1.21098518371582</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>2</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45170</v>
       </c>
       <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
         <v>1.066865801811218</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>1</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45173</v>
       </c>
       <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>0.7785563468933105</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>1</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45176</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>1.355376958847046</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>1</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45179</v>
       </c>
       <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>1.441453218460083</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45189</v>
       </c>
       <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>1.11013662815094</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>2</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45191</v>
       </c>
       <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
         <v>0.956460177898407</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>1</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45192</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>1.057880640029907</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45197</v>
       </c>
       <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>1.148499488830566</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45199</v>
       </c>
       <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>1.736299872398376</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45201</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>1.366674304008484</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>2</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45202</v>
       </c>
       <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
         <v>1.123415946960449</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>1</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45204</v>
       </c>
       <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>1.276935577392578</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>1</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45206</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>1.767862200737</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>1</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45210</v>
       </c>
       <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>1.583600282669067</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>2</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45211</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>1.282859086990356</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>1</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45213</v>
       </c>
       <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>1.16814398765564</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>2</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45214</v>
       </c>
       <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
         <v>1.838150858879089</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>1</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45222</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>1.86497437953949</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>1</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45223</v>
       </c>
       <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
         <v>1.52287220954895</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>2</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45224</v>
       </c>
       <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
         <v>1.416933178901672</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>1</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45229</v>
       </c>
       <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
         <v>1.318332552909851</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>2</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45239</v>
       </c>
       <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
         <v>1.356019973754883</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>2</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45240</v>
       </c>
       <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
         <v>1.400863647460938</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>1</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45245</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
         <v>1.181972026824951</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>2</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45250</v>
       </c>
       <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
         <v>1.044892549514771</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45255</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>1.355136394500732</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45256</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>1.058443069458008</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>1</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45258</v>
       </c>
       <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>1.434889674186707</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>1</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45259</v>
       </c>
       <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
         <v>1.400304079055786</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>1</v>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45265</v>
       </c>
       <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>1.424914121627808</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>2</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45269</v>
       </c>
       <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
         <v>1.490383744239807</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>2</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45272</v>
       </c>
       <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
         <v>1.137581825256348</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>2</v>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45273</v>
       </c>
       <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
         <v>1.5940021276474</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>1</v>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45274</v>
       </c>
       <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
         <v>1.602279901504517</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>1</v>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45276</v>
       </c>
       <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
         <v>1.495128870010376</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>2</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45279</v>
       </c>
       <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
         <v>1.701536893844604</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>1</v>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45281</v>
       </c>
       <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
         <v>0.9901108741760254</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>1</v>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45282</v>
       </c>
       <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
         <v>0.9894063472747803</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45289</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>1.580013513565063</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>1</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45290</v>
       </c>
       <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
         <v>1.375970005989075</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45295</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>1.174111247062683</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>1</v>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45297</v>
       </c>
       <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
         <v>1.281035184860229</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>1</v>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45298</v>
       </c>
       <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
         <v>0.887408971786499</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>2</v>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45301</v>
       </c>
       <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
         <v>0.9833536744117737</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>1</v>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45302</v>
       </c>
       <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
         <v>0.9999122023582458</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>1</v>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45303</v>
       </c>
       <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
         <v>0.8722248077392578</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>1</v>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45304</v>
       </c>
       <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
         <v>1.249831438064575</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>1</v>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45306</v>
       </c>
       <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>1.05278491973877</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>1</v>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45311</v>
       </c>
       <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
         <v>0.8477238416671753</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>1</v>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45315</v>
       </c>
       <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
         <v>1.383161902427673</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>2</v>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45316</v>
       </c>
       <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
         <v>1.386944055557251</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>1</v>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45317</v>
       </c>
       <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
         <v>1.246457099914551</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>2</v>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45318</v>
       </c>
       <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
         <v>1.322674155235291</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>1</v>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45319</v>
       </c>
       <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
         <v>1.092897295951843</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
-        <v>1</v>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45321</v>
       </c>
       <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
         <v>1.225786805152893</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
-        <v>1</v>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45322</v>
       </c>
       <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
         <v>1.533229112625122</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
-        <v>1</v>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45324</v>
       </c>
       <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
         <v>1.228142619132996</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
-        <v>1</v>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45326</v>
       </c>
       <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
         <v>1.564346671104431</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
-        <v>2</v>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45327</v>
       </c>
       <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
         <v>0.9585697650909424</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
-        <v>1</v>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45332</v>
       </c>
       <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
         <v>0.9519916772842407</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
-        <v>1</v>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45336</v>
       </c>
       <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
         <v>1.144778251647949</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153">
-        <v>1</v>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45337</v>
       </c>
       <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
         <v>1.850032091140747</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154">
-        <v>1</v>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45339</v>
       </c>
       <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
         <v>1.207817435264587</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155">
-        <v>1</v>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45340</v>
       </c>
       <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
         <v>1.450212359428406</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156">
-        <v>2</v>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45344</v>
       </c>
       <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
         <v>1.309152960777283</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
-        <v>1</v>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45346</v>
       </c>
       <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
         <v>1.341246962547302</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158">
-        <v>1</v>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45349</v>
       </c>
       <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
         <v>1.478622913360596</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159">
-        <v>2</v>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45350</v>
       </c>
       <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
         <v>1.633769273757935</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160">
-        <v>1</v>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45352</v>
       </c>
       <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
         <v>0.9858018159866333</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161">
-        <v>1</v>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45353</v>
       </c>
       <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
         <v>1.784106850624084</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162">
-        <v>2</v>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45355</v>
       </c>
       <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
         <v>1.178591370582581</v>
       </c>
     </row>
